--- a/biology/Microbiologie/Milieu_BMPA_alpha/Milieu_BMPA_alpha.xlsx
+++ b/biology/Microbiologie/Milieu_BMPA_alpha/Milieu_BMPA_alpha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le milieu BMPAα (Buffered céfaMandole Polymyxine Anisomycine α-cétoglutarate) est un milieu de culture sélectif employé en microbiologie pour l'isolement des Légionelles et plus particulièrement de l'agent pathogène L. pneumophila. Il a été mis au point en 1981 par P.H. Edelstein à partir du milieu BCYE[1]. D'après son inventeur il est particulièrement adapté à l'isolement des Légionelles à partir des prélèvements environnementaux contaminés et des prélèvements cliniques.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le milieu BMPAα (Buffered céfaMandole Polymyxine Anisomycine α-cétoglutarate) est un milieu de culture sélectif employé en microbiologie pour l'isolement des Légionelles et plus particulièrement de l'agent pathogène L. pneumophila. Il a été mis au point en 1981 par P.H. Edelstein à partir du milieu BCYE. D'après son inventeur il est particulièrement adapté à l'isolement des Légionelles à partir des prélèvements environnementaux contaminés et des prélèvements cliniques.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Principe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La base nutritive est celle du milieu BCYEα dont les trois facteurs de croissance sont la L-cystéine, le pyrophosphate de fer(III) et l'α-cétoglutarate. Le système tampon est identique.
 La sélectivité est assurée par un cocktail de trois anti-infectieux. L'anisomycine est un inhibiteur des synthèses protéiques eucaryotes employé ici comme antifongique. Le céfamandole et la polymyxine B procurent une couverture antibiotique à large spectre.
@@ -543,9 +557,11 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pour 1000 mL de milieu[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour 1000 mL de milieu :
 extrait de levure : 10 g
 ACES : 10 g
 hydroxyde de potassium : qsp pH = 6,9 ± 0,1 à 35°C (soit environ 40 mL d'une solution aqueuse de KOH à 1 mol/L)
@@ -556,7 +572,7 @@
 céfamandole : 4 mg
 polymyxine B : 80 000 UI
 anisomycine : 80 mg
-agar : 13 g[3].
+agar : 13 g.
 Le pH final est à 6,9 ± 0,1.
 </t>
         </is>
@@ -586,7 +602,9 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La base CYE (milieu CYE sans additifs) est dissoute à chaud dans le volume correspondant d'eau distillée et le mélange est stérilisé à l'autoclave (15 minutes à 121°C). Après refroidissement partiel jusqu'à 50°C les additifs thermosensibles (tampon, facteurs de croissance, anti-infectieux) sont introduits aseptiquement, par exemple par filtration stérilisante. Le mélange homogénéisé est réparti dans les contenants stériles.
 Plusieurs fournisseurs proposent le mélange d'anti-infectieux sous la forme d'un « supplément BMPAα » prêt à l'emploi qu'il suffit de mélanger à une quantité déterminée de milieu BCYEα après autoclavage.
